--- a/output/growth_rate.xlsx
+++ b/output/growth_rate.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,25 +385,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>od_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>RNA7SK</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>HEXIM1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DHFR3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DHFR12</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
@@ -431,27 +436,30 @@
       <c r="E2">
         <v>42.5</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2">
+        <v>0.2314000055193901</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -479,27 +487,30 @@
       <c r="E3">
         <v>41.5</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3">
+        <v>0.2438999935984612</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -527,27 +538,30 @@
       <c r="E4">
         <v>39.33333333333334</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4">
+        <v>0.3057000264525414</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -575,27 +589,30 @@
       <c r="E5">
         <v>43.33333333333334</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5">
+        <v>0.2948000058531761</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -623,27 +640,30 @@
       <c r="E6">
         <v>41.83333333333334</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6">
+        <v>0.2440000101923943</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -671,27 +691,30 @@
       <c r="E7">
         <v>41.83333333333334</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7">
+        <v>0.2481000050902367</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -719,27 +742,30 @@
       <c r="E8">
         <v>42.5</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8">
+        <v>0.2122999951243401</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -767,27 +793,30 @@
       <c r="E9">
         <v>44</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9">
+        <v>0.2428000047802925</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -815,27 +844,30 @@
       <c r="E10">
         <v>41.5</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10">
+        <v>0.216200016438961</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -863,27 +895,30 @@
       <c r="E11">
         <v>38.83333333333334</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11">
+        <v>0.2252500131726265</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -911,27 +946,30 @@
       <c r="E12">
         <v>41</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12">
+        <v>0.2023000046610832</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -959,27 +997,30 @@
       <c r="E13">
         <v>42.5</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13">
+        <v>0.2542000040411949</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1007,27 +1048,30 @@
       <c r="E14">
         <v>32.33333333333334</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14">
+        <v>0.794000007212162</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1055,27 +1099,30 @@
       <c r="E15">
         <v>25</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15">
+        <v>0.9047999605536461</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1103,27 +1150,30 @@
       <c r="E16">
         <v>43</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16">
+        <v>0.2993999943137169</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1151,27 +1201,30 @@
       <c r="E17">
         <v>34.83333333333334</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17">
+        <v>0.7699000015854836</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1199,27 +1252,30 @@
       <c r="E18">
         <v>48.66666666666666</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18">
+        <v>0.4573999866843224</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1247,27 +1303,30 @@
       <c r="E19">
         <v>38</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19">
+        <v>0.6900999769568443</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1295,27 +1354,30 @@
       <c r="E20">
         <v>53.33333333333334</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20">
+        <v>0.4286999925971031</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1343,27 +1405,30 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21">
+        <v>0.9255000576376915</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1391,27 +1456,30 @@
       <c r="E22">
         <v>53</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22">
+        <v>0.4009000286459923</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1439,27 +1507,30 @@
       <c r="E23">
         <v>55.33333333333334</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23">
+        <v>0.4159000143408775</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1487,27 +1558,30 @@
       <c r="E24">
         <v>37.33333333333334</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24">
+        <v>0.6442500054836273</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1535,27 +1609,30 @@
       <c r="E25">
         <v>45.66666666666666</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25">
+        <v>0.3236500173807144</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>no 7SK</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>no HEXIM1</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>double negative</t>
         </is>
@@ -1583,27 +1660,30 @@
       <c r="E26">
         <v>48.66666666666666</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F26">
+        <v>0.3775999918580055</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1631,27 +1711,30 @@
       <c r="E27">
         <v>54.16666666666666</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F27">
+        <v>0.4511000141501427</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1679,27 +1762,30 @@
       <c r="E28">
         <v>50.66666666666666</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F28">
+        <v>0.635700024664402</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1727,27 +1813,30 @@
       <c r="E29">
         <v>45.83333333333334</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F29">
+        <v>0.3803000077605247</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1775,27 +1864,30 @@
       <c r="E30">
         <v>52.5</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F30">
+        <v>0.4601000174880028</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1823,27 +1915,30 @@
       <c r="E31">
         <v>43.5</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F31">
+        <v>0.3044000044465065</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1871,27 +1966,30 @@
       <c r="E32">
         <v>48.66666666666666</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F32">
+        <v>0.3675000295042992</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1919,27 +2017,30 @@
       <c r="E33">
         <v>52.83333333333334</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F33">
+        <v>0.5073999986052513</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -1967,27 +2068,30 @@
       <c r="E34">
         <v>41.83333333333334</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F34">
+        <v>0.3399999961256981</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2015,27 +2119,30 @@
       <c r="E35">
         <v>45.83333333333334</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F35">
+        <v>0.3633000031113625</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2063,27 +2170,30 @@
       <c r="E36">
         <v>47.5</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F36">
+        <v>0.3678500205278397</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2111,27 +2221,30 @@
       <c r="E37">
         <v>53</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F37">
+        <v>0.5510000213980675</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2159,27 +2272,30 @@
       <c r="E38">
         <v>48.33333333333334</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F38">
+        <v>0.2383000031113625</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2207,27 +2323,30 @@
       <c r="E39">
         <v>45</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F39">
+        <v>0.2982000336050987</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2255,27 +2374,30 @@
       <c r="E40">
         <v>51.16666666666666</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F40">
+        <v>0.4096999987959862</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2303,27 +2425,30 @@
       <c r="E41">
         <v>47.5</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F41">
+        <v>0.4265499860048294</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2351,27 +2476,30 @@
       <c r="E42">
         <v>51.5</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F42">
+        <v>0.5579999908804893</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2399,27 +2527,30 @@
       <c r="E43">
         <v>43.66666666666666</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F43">
+        <v>0.272999994456768</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2447,27 +2578,30 @@
       <c r="E44">
         <v>47</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F44">
+        <v>0.5755999907851219</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2495,27 +2629,30 @@
       <c r="E45">
         <v>41.83333333333334</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F45">
+        <v>0.2992000207304955</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2543,27 +2680,30 @@
       <c r="E46">
         <v>43</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F46">
+        <v>0.3490000143647194</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2591,27 +2731,30 @@
       <c r="E47">
         <v>45.16666666666666</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F47">
+        <v>0.3088000044226646</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2639,27 +2782,30 @@
       <c r="E48">
         <v>43</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F48">
+        <v>0.2778999879956245</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2687,27 +2833,30 @@
       <c r="E49">
         <v>45.33333333333334</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F49">
+        <v>0.3020000234246254</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>DHFR12_N_term</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2735,27 +2884,30 @@
       <c r="E50">
         <v>43</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F50">
+        <v>0.7053999677300453</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2783,27 +2935,30 @@
       <c r="E51">
         <v>52.16666666666666</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F51">
+        <v>0.542400024831295</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2831,27 +2986,30 @@
       <c r="E52">
         <v>49.83333333333334</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F52">
+        <v>0.602900005877018</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2879,27 +3037,30 @@
       <c r="E53">
         <v>49.33333333333334</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F53">
+        <v>0.6043499857187271</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2927,27 +3088,30 @@
       <c r="E54">
         <v>48.66666666666666</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F54">
+        <v>0.592849999666214</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -2975,27 +3139,30 @@
       <c r="E55">
         <v>42.16666666666666</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F55">
+        <v>0.7486499920487404</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3023,27 +3190,30 @@
       <c r="E56">
         <v>45</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F56">
+        <v>0.7107499837875366</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3071,27 +3241,30 @@
       <c r="E57">
         <v>47.33333333333334</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F57">
+        <v>0.5097999796271324</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3119,27 +3292,30 @@
       <c r="E58">
         <v>38</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F58">
+        <v>0.8095000013709068</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3167,27 +3343,30 @@
       <c r="E59">
         <v>42.16666666666666</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F59">
+        <v>0.7971000447869301</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3215,27 +3394,30 @@
       <c r="E60">
         <v>40.16666666666666</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F60">
+        <v>0.7731999978423119</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3263,27 +3445,30 @@
       <c r="E61">
         <v>53</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F61">
+        <v>0.6045000180602074</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>DHFR3_C_term</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3311,27 +3496,30 @@
       <c r="E62">
         <v>52.5</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F62">
+        <v>0.4675499945878983</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3359,27 +3547,30 @@
       <c r="E63">
         <v>48.66666666666666</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F63">
+        <v>0.5829000100493431</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3407,27 +3598,30 @@
       <c r="E64">
         <v>44</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F64">
+        <v>0.3390000090003014</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3455,27 +3649,30 @@
       <c r="E65">
         <v>38.83333333333334</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F65">
+        <v>0.7606000080704689</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3503,27 +3700,30 @@
       <c r="E66">
         <v>44</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F66">
+        <v>0.3873999938368797</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3551,27 +3751,30 @@
       <c r="E67">
         <v>37.33333333333334</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F67">
+        <v>0.8253000006079674</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3599,27 +3802,30 @@
       <c r="E68">
         <v>42.5</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F68">
+        <v>0.3788000121712685</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3647,27 +3853,30 @@
       <c r="E69">
         <v>51.16666666666666</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F69">
+        <v>0.6243000254034996</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3695,27 +3904,30 @@
       <c r="E70">
         <v>53.33333333333334</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F70">
+        <v>0.4578999951481819</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3743,27 +3955,30 @@
       <c r="E71">
         <v>50</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F71">
+        <v>0.4483999982476234</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3791,27 +4006,30 @@
       <c r="E72">
         <v>48.66666666666666</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F72">
+        <v>0.3847999796271324</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3839,27 +4057,30 @@
       <c r="E73">
         <v>45.66666666666666</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>7SK(1-175)</t>
-        </is>
+      <c r="F73">
+        <v>0.3437999859452248</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>HEXIM1(1-274)</t>
+          <t>7SK(1-175)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>HEXIM1(1-274)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>DHFR3_N_term</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>DHFR12_C_term</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>double positive</t>
         </is>
@@ -3887,7 +4108,10 @@
       <c r="E74">
         <v>56.66666666666666</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="F74">
+        <v>0.5737999901175499</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -3915,7 +4139,10 @@
       <c r="E75">
         <v>20.16666666666667</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="F75">
+        <v>0.8601500019431114</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3943,7 +4170,10 @@
       <c r="E76">
         <v>28</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="F76">
+        <v>1.015599966049194</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3971,7 +4201,10 @@
       <c r="E77">
         <v>45.66666666666666</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="F77">
+        <v>0.4131000265479088</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -3999,7 +4232,10 @@
       <c r="E78">
         <v>28.66666666666667</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="F78">
+        <v>0.9910000041127205</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4027,7 +4263,10 @@
       <c r="E79">
         <v>54.16666666666666</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="F79">
+        <v>0.6857999935746193</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -4055,7 +4294,10 @@
       <c r="E80">
         <v>17.83333333333333</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="F80">
+        <v>1.039449974894524</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -4083,7 +4325,10 @@
       <c r="E81">
         <v>51.33333333333334</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="F81">
+        <v>0.5847000107169151</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -4111,7 +4356,10 @@
       <c r="E82">
         <v>21.33333333333333</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="F82">
+        <v>1.008300043642521</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>positive</t>
         </is>

--- a/output/growth_rate.xlsx
+++ b/output/growth_rate.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04097723841932241</v>
+        <v>0.04097723841932249</v>
       </c>
       <c r="E2">
         <v>42.5</v>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.04269517059668156</v>
+        <v>0.04269517059668157</v>
       </c>
       <c r="E3">
         <v>41.5</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.04429979142950936</v>
+        <v>0.04429979142950934</v>
       </c>
       <c r="E4">
         <v>39.33333333333334</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DHFR12_N_term</t>
+          <t>DHFR12_C_term</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.03929683307690628</v>
+        <v>0.03929683307690626</v>
       </c>
       <c r="E5">
         <v>43.33333333333334</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.03937447585678303</v>
+        <v>0.03937447585678307</v>
       </c>
       <c r="E6">
         <v>41.83333333333334</v>
@@ -660,7 +660,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DHFR12_N_term</t>
+          <t>DHFR12_C_term</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.040336801692319</v>
+        <v>0.04033680169231903</v>
       </c>
       <c r="E7">
         <v>41.83333333333334</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.04098002201150359</v>
+        <v>0.04098002201150364</v>
       </c>
       <c r="E8">
         <v>42.5</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DHFR12_N_term</t>
+          <t>DHFR12_C_term</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.04192620461027258</v>
+        <v>0.04192620461027254</v>
       </c>
       <c r="E9">
         <v>44</v>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.03826018243295991</v>
+        <v>0.03826018243295994</v>
       </c>
       <c r="E10">
         <v>41.5</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0276441913630214</v>
+        <v>0.02764419136302141</v>
       </c>
       <c r="E11">
         <v>38.83333333333334</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.04198000344805352</v>
+        <v>0.04198000344805354</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0400815992146229</v>
+        <v>0.04008159921462297</v>
       </c>
       <c r="E13">
         <v>42.5</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.1190763531796747</v>
+        <v>0.1190763531796746</v>
       </c>
       <c r="E14">
         <v>32.33333333333334</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.1406605443223996</v>
+        <v>0.1406605443223997</v>
       </c>
       <c r="E15">
         <v>25</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.04027771755062185</v>
+        <v>0.04027771755062181</v>
       </c>
       <c r="E16">
         <v>43</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.05003201250530512</v>
+        <v>0.05003201250530515</v>
       </c>
       <c r="E18">
         <v>48.66666666666666</v>
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.1158770704285839</v>
+        <v>0.115877070428584</v>
       </c>
       <c r="E19">
         <v>38</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.04190794007069732</v>
+        <v>0.0419079400706974</v>
       </c>
       <c r="E20">
         <v>53.33333333333334</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.1484240591804241</v>
+        <v>0.1484240591804242</v>
       </c>
       <c r="E21">
         <v>23</v>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.04131396477675512</v>
+        <v>0.04131396477675519</v>
       </c>
       <c r="E22">
         <v>53</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.04047511066172605</v>
+        <v>0.04047511066172597</v>
       </c>
       <c r="E23">
         <v>55.33333333333334</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.1026432607595298</v>
+        <v>0.10264326075953</v>
       </c>
       <c r="E24">
         <v>37.33333333333334</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.03848609087056794</v>
+        <v>0.03848609087056792</v>
       </c>
       <c r="E25">
         <v>45.66666666666666</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.03422137839769206</v>
+        <v>0.03422137839769211</v>
       </c>
       <c r="E26">
         <v>48.66666666666666</v>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.04242393469279641</v>
+        <v>0.04242393469279643</v>
       </c>
       <c r="E27">
         <v>54.16666666666666</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.03314068796248506</v>
+        <v>0.03314068796248505</v>
       </c>
       <c r="E29">
         <v>45.83333333333334</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.03936020290587004</v>
+        <v>0.03936020290587005</v>
       </c>
       <c r="E30">
         <v>52.5</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.0411817759538264</v>
+        <v>0.04118177595382631</v>
       </c>
       <c r="E31">
         <v>43.5</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.02997771865120504</v>
+        <v>0.02997771865120507</v>
       </c>
       <c r="E32">
         <v>48.66666666666666</v>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.044678320154157</v>
+        <v>0.04467832015415703</v>
       </c>
       <c r="E34">
         <v>41.83333333333334</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.04024287109049682</v>
+        <v>0.04024287109049683</v>
       </c>
       <c r="E35">
         <v>45.83333333333334</v>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.03453962466477924</v>
+        <v>0.03453962466477918</v>
       </c>
       <c r="E36">
         <v>47.5</v>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.04264325139162291</v>
+        <v>0.04264325139162303</v>
       </c>
       <c r="E37">
         <v>53</v>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.04387622852051942</v>
+        <v>0.04387622852051939</v>
       </c>
       <c r="E38">
         <v>48.33333333333334</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.04086777759561341</v>
+        <v>0.0408677775956135</v>
       </c>
       <c r="E39">
         <v>45</v>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.03867860068224502</v>
+        <v>0.038678600682245</v>
       </c>
       <c r="E40">
         <v>51.16666666666666</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>0.03477824664364811</v>
+        <v>0.03477824664364804</v>
       </c>
       <c r="E41">
         <v>47.5</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>0.04586630549120275</v>
+        <v>0.04586630549120276</v>
       </c>
       <c r="E42">
         <v>51.5</v>
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.04187542872783681</v>
+        <v>0.04187542872783673</v>
       </c>
       <c r="E43">
         <v>43.66666666666666</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.05350581053721867</v>
+        <v>0.05350581053721865</v>
       </c>
       <c r="E44">
         <v>47</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.03758872027990179</v>
+        <v>0.03758872027990185</v>
       </c>
       <c r="E45">
         <v>41.83333333333334</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.04255737497074125</v>
+        <v>0.04255737497074124</v>
       </c>
       <c r="E48">
         <v>43</v>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>0.0407681456606166</v>
+        <v>0.04076814566061661</v>
       </c>
       <c r="E49">
         <v>45.33333333333334</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>0.07645569241623031</v>
+        <v>0.07645569241623025</v>
       </c>
       <c r="E50">
         <v>43</v>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>0.04696294142709909</v>
+        <v>0.04696294142709911</v>
       </c>
       <c r="E51">
         <v>52.16666666666666</v>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>0.05324971740219991</v>
+        <v>0.05324971740219987</v>
       </c>
       <c r="E52">
         <v>49.83333333333334</v>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>0.0445678353999852</v>
+        <v>0.04456783539998523</v>
       </c>
       <c r="E53">
         <v>49.33333333333334</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="D54">
-        <v>0.04766440820777124</v>
+        <v>0.04766440820777128</v>
       </c>
       <c r="E54">
         <v>48.66666666666666</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>0.07914255984883918</v>
+        <v>0.07914255984883917</v>
       </c>
       <c r="E55">
         <v>42.16666666666666</v>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>0.05804402477717527</v>
+        <v>0.05804402477717532</v>
       </c>
       <c r="E56">
         <v>45</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>0.03351680518648366</v>
+        <v>0.03351680518648362</v>
       </c>
       <c r="E57">
         <v>47.33333333333334</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D58">
-        <v>0.0952593173841013</v>
+        <v>0.09525931738410133</v>
       </c>
       <c r="E58">
         <v>38</v>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="D59">
-        <v>0.07881262454997688</v>
+        <v>0.07881262454997691</v>
       </c>
       <c r="E59">
         <v>42.16666666666666</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="D60">
-        <v>0.08739926581235645</v>
+        <v>0.08739926581235634</v>
       </c>
       <c r="E60">
         <v>40.16666666666666</v>
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="D61">
-        <v>0.04799146448841017</v>
+        <v>0.04799146448841025</v>
       </c>
       <c r="E61">
         <v>53</v>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="D62">
-        <v>0.04207969934380734</v>
+        <v>0.04207969934380732</v>
       </c>
       <c r="E62">
         <v>52.5</v>
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="D63">
-        <v>0.04504611458119444</v>
+        <v>0.04504611458119447</v>
       </c>
       <c r="E63">
         <v>48.66666666666666</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>0.04507370790845995</v>
+        <v>0.04507370790845988</v>
       </c>
       <c r="E64">
         <v>44</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>0.09235353905477603</v>
+        <v>0.092353539054776</v>
       </c>
       <c r="E65">
         <v>38.83333333333334</v>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>0.0470382341413814</v>
+        <v>0.04703823414138136</v>
       </c>
       <c r="E66">
         <v>44</v>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D67">
-        <v>0.09499350671566591</v>
+        <v>0.09499350671566599</v>
       </c>
       <c r="E67">
         <v>37.33333333333334</v>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="D69">
-        <v>0.04393566863842762</v>
+        <v>0.04393566863842759</v>
       </c>
       <c r="E69">
         <v>51.16666666666666</v>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>0.04509846876453675</v>
+        <v>0.04509846876453674</v>
       </c>
       <c r="E70">
         <v>53.33333333333334</v>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="D71">
-        <v>0.04009169322530791</v>
+        <v>0.0400916932253079</v>
       </c>
       <c r="E71">
         <v>50</v>
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="D72">
-        <v>0.04069517914201634</v>
+        <v>0.04069517914201637</v>
       </c>
       <c r="E72">
         <v>48.66666666666666</v>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D73">
-        <v>0.04336958762334634</v>
+        <v>0.04336958762334631</v>
       </c>
       <c r="E73">
         <v>45.66666666666666</v>
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="D74">
-        <v>0.04446683057661157</v>
+        <v>0.04446683057661154</v>
       </c>
       <c r="E74">
         <v>56.66666666666666</v>
@@ -4111,6 +4111,16 @@
       <c r="F74">
         <v>0.5737999901175499</v>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>negative</t>
@@ -4134,7 +4144,7 @@
         </is>
       </c>
       <c r="D75">
-        <v>0.2115323652309298</v>
+        <v>0.2115323652309299</v>
       </c>
       <c r="E75">
         <v>20.16666666666667</v>
@@ -4142,6 +4152,16 @@
       <c r="F75">
         <v>0.8601500019431114</v>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>positive</t>
@@ -4165,7 +4185,7 @@
         </is>
       </c>
       <c r="D76">
-        <v>0.1408014693890251</v>
+        <v>0.1408014693890252</v>
       </c>
       <c r="E76">
         <v>28</v>
@@ -4173,6 +4193,16 @@
       <c r="F76">
         <v>1.015599966049194</v>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>positive</t>
@@ -4196,7 +4226,7 @@
         </is>
       </c>
       <c r="D77">
-        <v>0.04665157164482928</v>
+        <v>0.04665157164482927</v>
       </c>
       <c r="E77">
         <v>45.66666666666666</v>
@@ -4204,6 +4234,16 @@
       <c r="F77">
         <v>0.4131000265479088</v>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>positive</t>
@@ -4235,6 +4275,16 @@
       <c r="F78">
         <v>0.9910000041127205</v>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>positive</t>
@@ -4258,7 +4308,7 @@
         </is>
       </c>
       <c r="D79">
-        <v>0.05173489160143452</v>
+        <v>0.05173489160143454</v>
       </c>
       <c r="E79">
         <v>54.16666666666666</v>
@@ -4266,6 +4316,16 @@
       <c r="F79">
         <v>0.6857999935746193</v>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>negative</t>
@@ -4297,6 +4357,16 @@
       <c r="F80">
         <v>1.039449974894524</v>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>positive</t>
@@ -4320,7 +4390,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>0.06034268724749971</v>
+        <v>0.06034268724749972</v>
       </c>
       <c r="E81">
         <v>51.33333333333334</v>
@@ -4328,6 +4398,16 @@
       <c r="F81">
         <v>0.5847000107169151</v>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>negative</t>
@@ -4351,13 +4431,23 @@
         </is>
       </c>
       <c r="D82">
-        <v>0.1902723181581566</v>
+        <v>0.1902723181581565</v>
       </c>
       <c r="E82">
         <v>21.33333333333333</v>
       </c>
       <c r="F82">
         <v>1.008300043642521</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
